--- a/partmanager/upload_quotas_test.xlsx
+++ b/partmanager/upload_quotas_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>AD8571ARZ-REEL7</t>
   </si>
@@ -32,7 +32,10 @@
     <t>Analog Devices</t>
   </si>
   <si>
-    <t>Поставщик</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>Поставщик1</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -385,9 +388,10 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,8 +410,11 @@
       <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5">
-        <v>44969</v>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5">
+        <v>44977</v>
       </c>
     </row>
   </sheetData>

--- a/partmanager/upload_quotas_test.xlsx
+++ b/partmanager/upload_quotas_test.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,23 +27,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>AD8571ARZ-REEL7</t>
-  </si>
-  <si>
-    <t>Analog Devices</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>Поставщик1</t>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>AD5245BRJZ5-RL7</t>
+  </si>
+  <si>
+    <t>SINNO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -62,6 +63,13 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,9 +94,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -96,6 +101,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -379,7 +385,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -392,33 +398,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>44</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="E1" s="6">
-        <v>2022</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5">
-        <v>44977</v>
+      <c r="H1" s="4">
+        <v>44995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/partmanager/upload_quotas_test.xlsx
+++ b/partmanager/upload_quotas_test.xlsx
@@ -25,18 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>ADI</t>
+    <t>SINNO</t>
   </si>
   <si>
-    <t>AD5245BRJZ5-RL7</t>
+    <t>AD8571ARZ-REEL7</t>
   </si>
   <si>
-    <t>SINNO</t>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>AD8571ARZ</t>
+  </si>
+  <si>
+    <t>UNION</t>
   </si>
 </sst>
 </file>
@@ -382,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -402,13 +408,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2">
         <v>1000</v>
       </c>
       <c r="D1" s="3">
-        <v>1.5449999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="E1" s="5">
         <v>2022</v>
@@ -417,10 +423,88 @@
         <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4">
-        <v>44995</v>
+      <c r="C2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.6539999999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45005</v>
       </c>
     </row>
   </sheetData>
